--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Serial</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t xml:space="preserve">373.69930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565.86210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208.90010</t>
   </si>
 </sst>
 </file>
@@ -55,6 +67,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,16 +153,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -178,6 +188,22 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="C" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="C++" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t xml:space="preserve">Serial</t>
   </si>
@@ -155,35 +156,40 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -191,18 +197,18 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -215,4 +221,73 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1592.43</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>617.827</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1443.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="C" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="C++" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,47 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Serial</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Serial C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serial Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpeedUp</t>
   </si>
   <si>
     <t xml:space="preserve">PI</t>
   </si>
   <si>
-    <t xml:space="preserve">2323.56950</t>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">SUM</t>
   </si>
   <si>
-    <t xml:space="preserve">3091.55250</t>
-  </si>
-  <si>
     <t xml:space="preserve">2VEC</t>
   </si>
   <si>
-    <t xml:space="preserve">373.69930</t>
-  </si>
-  <si>
     <t xml:space="preserve">COUNTING</t>
   </si>
   <si>
-    <t xml:space="preserve">565.86210</t>
-  </si>
-  <si>
     <t xml:space="preserve">JULIA</t>
   </si>
   <si>
-    <t xml:space="preserve">208.90010</t>
+    <t xml:space="preserve">BLUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTORIAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -128,12 +134,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -154,62 +172,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.93877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2323.5695</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1592.43</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>3091.5525</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3574.72</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>162.6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>373.6993</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>454.977</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>565.8621</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>617.827</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>412.6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>208.9001</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1443.72</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>200.6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>978.1137</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>1054.61</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>276.8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4333.9</v>
       </c>
     </row>
   </sheetData>
@@ -221,73 +314,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1592.43</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>617.827</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1443.72</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t xml:space="preserve">Serial C</t>
   </si>
@@ -175,19 +175,17 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,6 +218,12 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -234,6 +238,13 @@
       <c r="D3" s="2" t="n">
         <v>162.6</v>
       </c>
+      <c r="F3" s="4" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <f aca="false">D3/F3</f>
+        <v>1.87111622554661</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -248,6 +259,13 @@
       <c r="D4" s="2" t="n">
         <v>139</v>
       </c>
+      <c r="F4" s="4" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <f aca="false">D4/F4</f>
+        <v>1.0996835443038</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -262,6 +280,8 @@
       <c r="D5" s="2" t="n">
         <v>412.6</v>
       </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -276,6 +296,8 @@
       <c r="D6" s="2" t="n">
         <v>200.6</v>
       </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -290,6 +312,13 @@
       <c r="D7" s="2" t="n">
         <v>276.8</v>
       </c>
+      <c r="F7" s="4" t="n">
+        <v>111</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <f aca="false">D7/F7</f>
+        <v>2.49369369369369</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -303,6 +332,13 @@
       </c>
       <c r="D8" s="0" t="n">
         <v>4333.9</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>636.3</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <f aca="false">D8/F8</f>
+        <v>6.81109539525381</v>
       </c>
     </row>
   </sheetData>

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -175,17 +175,18 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,8 +281,13 @@
       <c r="D5" s="2" t="n">
         <v>412.6</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <f aca="false">D5/F5</f>
+        <v>2.07024586051179</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -296,8 +302,13 @@
       <c r="D6" s="2" t="n">
         <v>200.6</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4" t="n">
+        <v>115</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <f aca="false">D6/F6</f>
+        <v>1.74434782608696</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t xml:space="preserve">Serial C</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">SpeedUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fork-Join</t>
   </si>
   <si>
     <t xml:space="preserve">PI</t>
@@ -69,7 +72,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -91,6 +94,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,7 +144,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -151,7 +161,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,21 +190,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -205,10 +225,16 @@
       <c r="G1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>2323.5695</v>
@@ -217,18 +243,24 @@
         <v>1592.43</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3091.5525</v>
@@ -239,17 +271,24 @@
       <c r="D3" s="2" t="n">
         <v>162.6</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>86.9</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <f aca="false">D3/F3</f>
         <v>1.87111622554661</v>
       </c>
+      <c r="H3" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">D3/H3</f>
+        <v>1.91294117647059</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>373.6993</v>
@@ -260,17 +299,24 @@
       <c r="D4" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>126.4</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <f aca="false">D4/F4</f>
         <v>1.0996835443038</v>
       </c>
+      <c r="H4" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">D4/H4</f>
+        <v>1.13934426229508</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>565.8621</v>
@@ -281,17 +327,25 @@
       <c r="D5" s="2" t="n">
         <v>412.6</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>199.3</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <f aca="false">D5/F5</f>
         <v>2.07024586051179</v>
       </c>
+      <c r="H5" s="5" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">D5/H5</f>
+        <v>4.03718199608611</v>
+      </c>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>208.9001</v>
@@ -302,55 +356,61 @@
       <c r="D6" s="2" t="n">
         <v>200.6</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <v>115</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <f aca="false">D6/F6</f>
         <v>1.74434782608696</v>
       </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>978.1137</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>1054.61</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>276.8</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <f aca="false">D7/F7</f>
         <v>2.49369369369369</v>
       </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4333.9</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>636.3</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <f aca="false">D8/F8</f>
         <v>6.81109539525381</v>
       </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t xml:space="preserve">Serial C</t>
   </si>
@@ -144,7 +144,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,6 +162,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,20 +197,20 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.07142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,10 +255,10 @@
       <c r="G2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="4" t="n">
+        <v>166</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -271,19 +275,19 @@
       <c r="D3" s="2" t="n">
         <v>162.6</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>86.9</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="6" t="n">
         <f aca="false">D3/F3</f>
         <v>1.87111622554661</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <v>85</v>
-      </c>
-      <c r="I3" s="5" t="n">
+      <c r="H3" s="6" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <f aca="false">D3/H3</f>
-        <v>1.91294117647059</v>
+        <v>1.84562996594779</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,17 +303,17 @@
       <c r="D4" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>126.4</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="6" t="n">
         <f aca="false">D4/F4</f>
         <v>1.0996835443038</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="6" t="n">
         <v>122</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <f aca="false">D4/H4</f>
         <v>1.13934426229508</v>
       </c>
@@ -327,21 +331,21 @@
       <c r="D5" s="2" t="n">
         <v>412.6</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>199.3</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="6" t="n">
         <f aca="false">D5/F5</f>
         <v>2.07024586051179</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="6" t="n">
         <v>102.2</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="6" t="n">
         <f aca="false">D5/H5</f>
         <v>4.03718199608611</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -356,38 +360,48 @@
       <c r="D6" s="2" t="n">
         <v>200.6</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>115</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="6" t="n">
         <f aca="false">D6/F6</f>
         <v>1.74434782608696</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="6" t="n">
+        <v>96.9</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <f aca="false">D6/H6</f>
+        <v>2.07017543859649</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <v>978.1137</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>1054.61</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>276.8</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="6" t="n">
         <f aca="false">D7/F7</f>
         <v>2.49369369369369</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="6" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <f aca="false">D7/H7</f>
+        <v>3.60416666666667</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -402,15 +416,20 @@
       <c r="D8" s="0" t="n">
         <v>4333.9</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>636.3</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="6" t="n">
         <f aca="false">D8/F8</f>
         <v>6.81109539525381</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="6" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <f aca="false">D8/H8</f>
+        <v>16.785050348567</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">Serial C</t>
   </si>
@@ -43,25 +43,25 @@
     <t xml:space="preserve">PI</t>
   </si>
   <si>
+    <t xml:space="preserve">SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2VEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACTORIAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2VEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FACTORIAL</t>
   </si>
 </sst>
 </file>
@@ -72,7 +72,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -93,6 +93,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -144,7 +151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,27 +161,31 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -197,20 +208,20 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,25 +257,27 @@
       <c r="C2" s="2" t="n">
         <v>1592.43</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="D2" s="3" t="n">
+        <v>733.4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <f aca="false">D2/F2</f>
+        <v>4.21010332950632</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
+      <c r="I2" s="4" t="n">
+        <f aca="false">D2/H2</f>
+        <v>4.41807228915663</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3091.5525</v>
@@ -275,24 +288,24 @@
       <c r="D3" s="2" t="n">
         <v>162.6</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>86.9</v>
       </c>
       <c r="G3" s="6" t="n">
         <f aca="false">D3/F3</f>
         <v>1.87111622554661</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="5" t="n">
         <v>88.1</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="5" t="n">
         <f aca="false">D3/H3</f>
         <v>1.84562996594779</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>373.6993</v>
@@ -303,14 +316,14 @@
       <c r="D4" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>126.4</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <f aca="false">D4/F4</f>
         <v>1.0996835443038</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="5" t="n">
         <v>122</v>
       </c>
       <c r="I4" s="6" t="n">
@@ -320,7 +333,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>565.8621</v>
@@ -331,14 +344,14 @@
       <c r="D5" s="2" t="n">
         <v>412.6</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>199.3</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <f aca="false">D5/F5</f>
         <v>2.07024586051179</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="5" t="n">
         <v>102.2</v>
       </c>
       <c r="I5" s="6" t="n">
@@ -349,7 +362,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>208.9001</v>
@@ -360,14 +373,14 @@
       <c r="D6" s="2" t="n">
         <v>200.6</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>115</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <f aca="false">D6/F6</f>
         <v>1.74434782608696</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="5" t="n">
         <v>96.9</v>
       </c>
       <c r="I6" s="6" t="n">
@@ -377,25 +390,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>978.1137</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="5" t="n">
         <v>1054.61</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>276.8</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>111</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="5" t="n">
         <f aca="false">D7/F7</f>
         <v>2.49369369369369</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="5" t="n">
         <v>76.8</v>
       </c>
       <c r="I7" s="6" t="n">
@@ -405,25 +418,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
+      <c r="C8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4333.9</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>636.3</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <f aca="false">D8/F8</f>
         <v>6.81109539525381</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="5" t="n">
         <v>258.2</v>
       </c>
       <c r="I8" s="6" t="n">

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">Serial C</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fork-Join</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpeedUṕ</t>
   </si>
   <si>
     <t xml:space="preserve">PI</t>
@@ -208,20 +214,20 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,10 +252,16 @@
       <c r="I1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>2323.5695</v>
@@ -274,10 +286,17 @@
         <f aca="false">D2/H2</f>
         <v>4.41807228915663</v>
       </c>
+      <c r="J2" s="0" t="n">
+        <v>768.09</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <f aca="false">B2/J2</f>
+        <v>3.02512661276673</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3091.5525</v>
@@ -291,7 +310,7 @@
       <c r="F3" s="5" t="n">
         <v>86.9</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="2" t="n">
         <f aca="false">D3/F3</f>
         <v>1.87111622554661</v>
       </c>
@@ -302,10 +321,17 @@
         <f aca="false">D3/H3</f>
         <v>1.84562996594779</v>
       </c>
+      <c r="J3" s="0" t="n">
+        <v>1423.99</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <f aca="false">B3/J3</f>
+        <v>2.17104930512152</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>373.6993</v>
@@ -333,7 +359,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>565.8621</v>
@@ -362,7 +388,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>208.9001</v>
@@ -390,7 +416,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>978.1137</v>
@@ -418,13 +444,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4333.9</v>

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -214,7 +214,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -352,9 +352,16 @@
       <c r="H4" s="5" t="n">
         <v>122</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="2" t="n">
         <f aca="false">D4/H4</f>
         <v>1.13934426229508</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>217.43</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <f aca="false">B4/J4</f>
+        <v>1.71871084946879</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -78,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -107,13 +107,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,7 +150,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,10 +176,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,20 +203,19 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,7 +379,13 @@
         <f aca="false">D5/H5</f>
         <v>4.03718199608611</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="J5" s="0" t="n">
+        <v>236.38</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">B5/J5</f>
+        <v>2.39386623233776</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -420,6 +414,13 @@
         <f aca="false">D6/H6</f>
         <v>2.07017543859649</v>
       </c>
+      <c r="J6" s="0" t="n">
+        <v>246.81</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">B6/J6</f>
+        <v>0.846400469997164</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -448,15 +449,22 @@
         <f aca="false">D7/H7</f>
         <v>3.60416666666667</v>
       </c>
+      <c r="J7" s="0" t="n">
+        <v>404.38</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">B7/J7</f>
+        <v>2.41879840743855</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -476,6 +484,7 @@
         <f aca="false">D8/H8</f>
         <v>16.785050348567</v>
       </c>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">Serial C</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">SpeedUṕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBB</t>
   </si>
   <si>
     <t xml:space="preserve">PI</t>
@@ -200,22 +203,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,10 +247,13 @@
       <c r="K1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>2323.5695</v>
@@ -281,10 +285,14 @@
         <f aca="false">B2/J2</f>
         <v>3.02512661276673</v>
       </c>
+      <c r="M2" s="0" t="e">
+        <f aca="false">C2/L2</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3091.5525</v>
@@ -316,10 +324,17 @@
         <f aca="false">B3/J3</f>
         <v>2.17104930512152</v>
       </c>
+      <c r="L3" s="0" t="n">
+        <v>193.91</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <f aca="false">C3/L3</f>
+        <v>18.434944046207</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>373.6993</v>
@@ -351,10 +366,14 @@
         <f aca="false">B4/J4</f>
         <v>1.71871084946879</v>
       </c>
+      <c r="M4" s="0" t="e">
+        <f aca="false">C4/L4</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>565.8621</v>
@@ -386,10 +405,14 @@
         <f aca="false">B5/J5</f>
         <v>2.39386623233776</v>
       </c>
+      <c r="M5" s="0" t="e">
+        <f aca="false">C5/L5</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>208.9001</v>
@@ -421,10 +444,14 @@
         <f aca="false">B6/J6</f>
         <v>0.846400469997164</v>
       </c>
+      <c r="M6" s="0" t="e">
+        <f aca="false">C6/L6</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>978.1137</v>
@@ -456,16 +483,20 @@
         <f aca="false">B7/J7</f>
         <v>2.41879840743855</v>
       </c>
+      <c r="M7" s="0" t="e">
+        <f aca="false">C7/L7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4333.9</v>

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -206,7 +206,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -285,9 +285,12 @@
         <f aca="false">B2/J2</f>
         <v>3.02512661276673</v>
       </c>
-      <c r="M2" s="0" t="e">
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="n">
         <f aca="false">C2/L2</f>
-        <v>#DIV/0!</v>
+        <v>1592.43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,9 +369,12 @@
         <f aca="false">B4/J4</f>
         <v>1.71871084946879</v>
       </c>
-      <c r="M4" s="0" t="e">
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="n">
         <f aca="false">C4/L4</f>
-        <v>#DIV/0!</v>
+        <v>454.977</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,9 +411,12 @@
         <f aca="false">B5/J5</f>
         <v>2.39386623233776</v>
       </c>
-      <c r="M5" s="0" t="e">
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
         <f aca="false">C5/L5</f>
-        <v>#DIV/0!</v>
+        <v>617.827</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,9 +453,12 @@
         <f aca="false">B6/J6</f>
         <v>0.846400469997164</v>
       </c>
-      <c r="M6" s="0" t="e">
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0" t="n">
         <f aca="false">C6/L6</f>
-        <v>#DIV/0!</v>
+        <v>1443.72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,9 +495,12 @@
         <f aca="false">B7/J7</f>
         <v>2.41879840743855</v>
       </c>
-      <c r="M7" s="0" t="e">
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
         <f aca="false">C7/L7</f>
-        <v>#DIV/0!</v>
+        <v>1054.61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -206,17 +206,20 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,16 +326,16 @@
       <c r="J3" s="0" t="n">
         <v>1423.99</v>
       </c>
-      <c r="K3" s="6" t="n">
+      <c r="K3" s="2" t="n">
         <f aca="false">B3/J3</f>
         <v>2.17104930512152</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>193.91</v>
-      </c>
-      <c r="M3" s="5" t="n">
+        <v>1563.26</v>
+      </c>
+      <c r="M3" s="6" t="n">
         <f aca="false">C3/L3</f>
-        <v>18.434944046207</v>
+        <v>2.28670854496373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,16 +368,16 @@
       <c r="J4" s="0" t="n">
         <v>217.43</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="2" t="n">
         <f aca="false">B4/J4</f>
         <v>1.71871084946879</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="0" t="n">
+        <v>193.91</v>
+      </c>
+      <c r="M4" s="6" t="n">
         <f aca="false">C4/L4</f>
-        <v>454.977</v>
+        <v>2.34633077200763</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -206,20 +206,20 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,11 +415,11 @@
         <v>2.39386623233776</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="0" t="n">
+        <v>24967.7</v>
+      </c>
+      <c r="M5" s="5" t="n">
         <f aca="false">C5/L5</f>
-        <v>617.827</v>
+        <v>0.0247450506053821</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,7 +445,7 @@
       <c r="H6" s="5" t="n">
         <v>96.9</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="2" t="n">
         <f aca="false">D6/H6</f>
         <v>2.07017543859649</v>
       </c>
@@ -457,11 +457,11 @@
         <v>0.846400469997164</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="n">
+        <v>462.914</v>
+      </c>
+      <c r="M6" s="6" t="n">
         <f aca="false">C6/L6</f>
-        <v>1443.72</v>
+        <v>3.11876504059069</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t xml:space="preserve">Serial C</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">TBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDA</t>
   </si>
   <si>
     <t xml:space="preserve">PI</t>
@@ -86,7 +89,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,7 +110,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,23 +204,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,10 +255,19 @@
       <c r="L1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>2323.5695</v>
@@ -298,7 +309,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>3091.5525</v>
@@ -340,7 +351,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>373.6993</v>
@@ -379,10 +390,17 @@
         <f aca="false">C4/L4</f>
         <v>2.34633077200763</v>
       </c>
+      <c r="N4" s="0" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <f aca="false">B4/N4</f>
+        <v>84931.6590909091</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>565.8621</v>
@@ -403,7 +421,7 @@
       <c r="H5" s="5" t="n">
         <v>102.2</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="2" t="n">
         <f aca="false">D5/H5</f>
         <v>4.03718199608611</v>
       </c>
@@ -421,10 +439,17 @@
         <f aca="false">C5/L5</f>
         <v>0.0247450506053821</v>
       </c>
+      <c r="N5" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <f aca="false">B5/N5</f>
+        <v>188620.7</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>208.9001</v>
@@ -466,7 +491,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>978.1137</v>
@@ -508,13 +533,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>4333.9</v>

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -89,6 +89,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,6 +111,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,21 +209,22 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O5" activeCellId="0" sqref="O5"/>
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,14 +389,14 @@
       <c r="L4" s="0" t="n">
         <v>193.91</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="2" t="n">
         <f aca="false">C4/L4</f>
         <v>2.34633077200763</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>0.0044</v>
       </c>
-      <c r="O4" s="5" t="n">
+      <c r="O4" s="6" t="n">
         <f aca="false">B4/N4</f>
         <v>84931.6590909091</v>
       </c>
@@ -484,9 +487,16 @@
       <c r="L6" s="0" t="n">
         <v>462.914</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="2" t="n">
         <f aca="false">C6/L6</f>
         <v>3.11876504059069</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <f aca="false">B6/N6</f>
+        <v>63303.0606060606</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/speed_up.xlsx
+++ b/speed_up.xlsx
@@ -80,9 +80,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -156,7 +157,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +183,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,22 +214,20 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="9" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="9" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -347,9 +350,16 @@
       <c r="L3" s="0" t="n">
         <v>1563.26</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="2" t="n">
         <f aca="false">C3/L3</f>
         <v>2.28670854496373</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <f aca="false">B3/N3</f>
+        <v>702625.568181818</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,7 +532,7 @@
       <c r="H7" s="5" t="n">
         <v>76.8</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="2" t="n">
         <f aca="false">D7/H7</f>
         <v>3.60416666666667</v>
       </c>
@@ -540,15 +550,22 @@
         <f aca="false">C7/L7</f>
         <v>1054.61</v>
       </c>
+      <c r="N7" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O7" s="7" t="n">
+        <f aca="false">B7/N7</f>
+        <v>326037.9</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="0" t="n">
